--- a/raw-data/synapse_templates/template_assay_rnaSeq.xlsx
+++ b/raw-data/synapse_templates/template_assay_rnaSeq.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="720">
   <si>
     <t>specimenID</t>
   </si>
@@ -63,6 +63,9 @@
     <t>isStranded</t>
   </si>
   <si>
+    <t>isResequenced</t>
+  </si>
+  <si>
     <t>readStrandOrigin</t>
   </si>
   <si>
@@ -132,12 +135,15 @@
     <t>Library Version: for example, rnaSeq 10x library version</t>
   </si>
   <si>
-    <t>The type of library, in assays where samples are barcoded or hashed for multiplexing and each sample has multiple libraries amplified separately before pooled sequencing.</t>
+    <t>The type of library, in assays where samples are barcoded or hashed for multiplexing or each sample has multiple libraries amplified separately before pooled sequencing.</t>
   </si>
   <si>
     <t>Whether or not the library is stranded.</t>
   </si>
   <si>
+    <t>Whether or not the same library is resequenced for more reads.</t>
+  </si>
+  <si>
     <t>The strand from which the read originates in a strand-specific protocol</t>
   </si>
   <si>
@@ -219,6 +225,12 @@
     <t>contextual conditioning behavior</t>
   </si>
   <si>
+    <t>CUT&amp;Tag</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
     <t>DNA optical mapping</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>HI-C</t>
   </si>
   <si>
+    <t>HiChIPseq</t>
+  </si>
+  <si>
     <t>high content screen</t>
   </si>
   <si>
@@ -312,9 +327,15 @@
     <t>locomotor activation behavior</t>
   </si>
   <si>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
     <t>LTP</t>
   </si>
   <si>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
     <t>memory behavior</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>MudPIT</t>
   </si>
   <si>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
     <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
@@ -411,9 +435,15 @@
     <t>scale</t>
   </si>
   <si>
+    <t>scATACSeq</t>
+  </si>
+  <si>
     <t>scCGIseq</t>
   </si>
   <si>
+    <t>scirnaSeq</t>
+  </si>
+  <si>
     <t>scrnaSeq</t>
   </si>
   <si>
@@ -426,6 +456,12 @@
     <t>snpArray</t>
   </si>
   <si>
+    <t>snATACSeq</t>
+  </si>
+  <si>
+    <t>snrnaSeq</t>
+  </si>
+  <si>
     <t>spontaneous alternation</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>UPLC-MSMS</t>
   </si>
   <si>
+    <t>UPLC-ESI-QTOF-MS</t>
+  </si>
+  <si>
     <t>Vernier Caliper</t>
   </si>
   <si>
@@ -462,6 +501,12 @@
     <t>Zeno Electronic Walkway</t>
   </si>
   <si>
+    <t>singleEnd</t>
+  </si>
+  <si>
+    <t>pairedEnd</t>
+  </si>
+  <si>
     <t>Affy5.0</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>confocalImaging</t>
   </si>
   <si>
+    <t>ddSEQ Single-Cell Isolator</t>
+  </si>
+  <si>
     <t>DNBSEQ</t>
   </si>
   <si>
@@ -528,24 +576,48 @@
     <t>Illumina_HumanOmni1-Quadv1.0</t>
   </si>
   <si>
+    <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
+  </si>
+  <si>
     <t>Illumina MouseWG-6 v2.0 expression beadchip</t>
   </si>
   <si>
+    <t>Illumina_Omni2.5-8</t>
+  </si>
+  <si>
+    <t>Illumina_Omni2.5-8_v1.1</t>
+  </si>
+  <si>
+    <t>Illumina_Omni2.5-8_v1.3</t>
+  </si>
+  <si>
     <t>Illumina_Omni2pt5M</t>
   </si>
   <si>
     <t>Illumina_Omni5M</t>
   </si>
   <si>
+    <t>Illumina_Omni5-Quad</t>
+  </si>
+  <si>
     <t>IlluminaHumanHap300</t>
   </si>
   <si>
+    <t>IlluminaHumanHap650Yv3_A</t>
+  </si>
+  <si>
     <t>IlluminaHumanHT-12_V3_0_R1</t>
   </si>
   <si>
     <t>IlluminaHumanMethylation450</t>
   </si>
   <si>
+    <t>IlluminaMethylationEPIC</t>
+  </si>
+  <si>
+    <t>IlluminaInfiniumGSAMD-24v2-0</t>
+  </si>
+  <si>
     <t>Illumina_Infinium-HumanMethylation450-BeadChip</t>
   </si>
   <si>
@@ -561,15 +633,27 @@
     <t>IlluminaWholeGenomeDASL</t>
   </si>
   <si>
+    <t>Infinium Global Diversity Array-8</t>
+  </si>
+  <si>
     <t>Infinium HumanOmniExpressExome</t>
   </si>
   <si>
+    <t>Infinium Omni2.5Exome-8 v1.1</t>
+  </si>
+  <si>
     <t>Infinium Omni2.5Exome-8 v1.3</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.4</t>
   </si>
   <si>
+    <t>Infinium Omni2.5Exome-8 v1.5</t>
+  </si>
+  <si>
+    <t>InfiniumPsychArrayBeadChip</t>
+  </si>
+  <si>
     <t>LTQOrbitrapXL</t>
   </si>
   <si>
@@ -585,6 +669,9 @@
     <t>NextSeq500</t>
   </si>
   <si>
+    <t>NextSeq2000</t>
+  </si>
+  <si>
     <t>Olink Target 96</t>
   </si>
   <si>
@@ -600,6 +687,12 @@
     <t>PacBioRSII</t>
   </si>
   <si>
+    <t>PacBio Sequel II</t>
+  </si>
+  <si>
+    <t>PacBio Sequel IIe</t>
+  </si>
+  <si>
     <t>Perlegen300Karray</t>
   </si>
   <si>
@@ -612,6 +705,9 @@
     <t>Q Exactive HF</t>
   </si>
   <si>
+    <t>Q Exactive HF-X</t>
+  </si>
+  <si>
     <t>Q Exactive Plus</t>
   </si>
   <si>
@@ -633,66 +729,141 @@
     <t>triple quadrupole</t>
   </si>
   <si>
+    <t>Xevo G2 QTOF</t>
+  </si>
+  <si>
     <t>Xevo TQ-S</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>amplicon</t>
+  </si>
+  <si>
+    <t>cellHashing</t>
+  </si>
+  <si>
+    <t>Chromium Single Cell 3'</t>
+  </si>
+  <si>
+    <t>DNALibraryConstruction</t>
+  </si>
+  <si>
+    <t>EndItDNAEndRepairKit</t>
+  </si>
+  <si>
+    <t>KapaHyperPrep</t>
+  </si>
+  <si>
+    <t>lncRNAenrichment</t>
+  </si>
+  <si>
+    <t>methylSeq</t>
+  </si>
+  <si>
+    <t>miRNAenrichment</t>
+  </si>
+  <si>
+    <t>multiome</t>
+  </si>
+  <si>
+    <t>MULTIseq</t>
+  </si>
+  <si>
+    <t>PCRfree</t>
+  </si>
+  <si>
+    <t>polyAselection</t>
+  </si>
+  <si>
+    <t>proximity ligation</t>
+  </si>
+  <si>
+    <t>rRNAdepletion</t>
+  </si>
+  <si>
+    <t>snIsoSeq</t>
+  </si>
+  <si>
+    <t>SPLITseq</t>
+  </si>
+  <si>
+    <t>SureCell</t>
+  </si>
+  <si>
+    <t>totalRNA</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>cDNA</t>
+  </si>
+  <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>HTO</t>
+  </si>
+  <si>
+    <t>LMO</t>
+  </si>
+  <si>
+    <t>plasmid DNA</t>
+  </si>
+  <si>
     <t>1000 Genomes phase 3</t>
   </si>
   <si>
+    <t>dmel_r6.06</t>
+  </si>
+  <si>
     <t>GRCh38</t>
   </si>
   <si>
     <t>GRCh37</t>
   </si>
   <si>
+    <t>GRCm38</t>
+  </si>
+  <si>
     <t>MMUL1.0</t>
   </si>
   <si>
     <t>HRC</t>
   </si>
   <si>
-    <t>amplicon</t>
-  </si>
-  <si>
-    <t>cellHashing</t>
-  </si>
-  <si>
-    <t>DNALibraryConstruction</t>
-  </si>
-  <si>
-    <t>EndItDNAEndRepairKit</t>
-  </si>
-  <si>
-    <t>KapaHyperPrep</t>
-  </si>
-  <si>
-    <t>lncRNAenrichment</t>
-  </si>
-  <si>
-    <t>miRNAenrichment</t>
-  </si>
-  <si>
-    <t>MULTIseq</t>
-  </si>
-  <si>
-    <t>PCRfree</t>
-  </si>
-  <si>
-    <t>polyAselection</t>
-  </si>
-  <si>
-    <t>rRNAdepletion</t>
-  </si>
-  <si>
-    <t>SPLITseq</t>
-  </si>
-  <si>
-    <t>SureCell</t>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>reverse</t>
   </si>
   <si>
     <t>10x</t>
   </si>
   <si>
+    <t>Accel-NGS 2S Plus</t>
+  </si>
+  <si>
+    <t>Accel-NGS Methyl-Seq</t>
+  </si>
+  <si>
     <t>CEL-seq</t>
   </si>
   <si>
@@ -708,58 +879,25 @@
     <t>Omni-ATAC</t>
   </si>
   <si>
+    <t>sac-seq</t>
+  </si>
+  <si>
+    <t>Smart-seq1</t>
+  </si>
+  <si>
     <t>Smart-seq2</t>
   </si>
   <si>
     <t>Smart-seq4</t>
   </si>
   <si>
+    <t>SMRTbell</t>
+  </si>
+  <si>
     <t>TruSeq</t>
   </si>
   <si>
-    <t>ADT</t>
-  </si>
-  <si>
-    <t>cDNA</t>
-  </si>
-  <si>
-    <t>CMO</t>
-  </si>
-  <si>
-    <t>HTO</t>
-  </si>
-  <si>
-    <t>LMO</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>reverse</t>
-  </si>
-  <si>
-    <t>singleEnd</t>
-  </si>
-  <si>
-    <t>pairedEnd</t>
+    <t>Ultralow Methyl-Seq</t>
   </si>
   <si>
     <t>An amplicon sequencing assay in which the amplicon is derived from universal primers used to amplify the 16S ribosomal RNA gene from isolate bacterial genomic DNA or metagenomic DNA from a microbioal community. Resulting sequences are compared to reference 16S sequence databases to identify or classify bacteria present within a given sample.</t>
@@ -810,6 +948,12 @@
     <t>CITE-seq is a method that combines highly multiplexed antibody-based detection of protein markers together with unbiased transcriptome profiling for thousands of single cells in parallel.</t>
   </si>
   <si>
+    <t>In CUT&amp;Tag, a chromatin protein is bound in situ by a specific antibody, which then tethers a protein A-Tn5 transposase fusion protein. Activation of the transposase efficiently generates fragment libraries with high resolution and exceptionally low background.</t>
+  </si>
+  <si>
+    <t>Data-independent acquisition (DIA) is a method for collecting tandem mass spectrometry data where the m/z values for all the ions are fragmented and analyzed during the second stage of spectrometry.</t>
+  </si>
+  <si>
     <t>Fluorescent imaging of linearly extended DNA molecules to probe information patterns along the molecules</t>
   </si>
   <si>
@@ -846,6 +990,9 @@
     <t>Chromatin interactions detected by HI-C protocol</t>
   </si>
   <si>
+    <t>Proximity Ligation-Assisted ChIP-seq (PLAC-seq), in which proximity ligation is conducted in nuclei prior to chromatin shearing and immunoprecipitationproximity ligation is conducted in nuclei prior to chromatin shearing and immunoprecipitation.</t>
+  </si>
+  <si>
     <t>An image analysis technique combining automated fluorescence microscopy with multi-parameter quantitative image analysis for the large scale study of cells (cellomics).</t>
   </si>
   <si>
@@ -900,9 +1047,15 @@
     <t>Activation of locomotory behavior.</t>
   </si>
   <si>
+    <t>Long-read RNA-seq can sequence individual transcript molecules in full. It can be used to characterize isoforms on a transcriptome-wide scale, and also to perform quantification on the gene and isoform level.</t>
+  </si>
+  <si>
     <t>Any measurable or observable characteristic related to the persistent robust synaptic response induced by synchronous stimulation of pre- and postsynaptic cells.</t>
   </si>
   <si>
+    <t>Multidimensional mass spectrometry-based shotgun lipidomics.</t>
+  </si>
+  <si>
     <t>Behavior related with the ability of an organism's ability to store, retain, and recall information and experiences.</t>
   </si>
   <si>
@@ -933,6 +1086,9 @@
     <t>MudPIT is a method for rapid and large-scale protein identification by multidimensional liquid chromatography associated with tandem mass spectrometry</t>
   </si>
   <si>
+    <t>An assay that detects m6A modifications in RNA</t>
+  </si>
+  <si>
     <t>A type of next generation sequencing in which specific genes or portions of genes are targeted for sequencing using amplicon-based workflow.</t>
   </si>
   <si>
@@ -999,9 +1155,15 @@
     <t>An instrument or machine for weighing.</t>
   </si>
   <si>
+    <t>A method for detecting the accessible chromatin in individual cells by transposase-accessible chromatin sequencing assay.</t>
+  </si>
+  <si>
     <t>A method for genome-wide CpG island (CGI) methylation sequencing for single cells (scCGI-seq), combining methylation-sensitive restriction enzyme digestion and multiple displacement amplification for selective detection of methylated CGIs</t>
   </si>
   <si>
+    <t>The sci-RNA-seq uses the combinatorial indexing to identify single cells without single cell isolation. Two-level indexing (RT barcode + PCR barcodes (i5 + i7)) or three-level indexing (RT barcode + PCR barcodes (i5 + i7) + Tn5 barcodes) can be used. Three-level indexing is a bit more difficult since you need to assemble many indexed Tn5 transposomes.</t>
+  </si>
+  <si>
     <t>Single cell sequencing examines the sequence information from individual cells with optimized next generation sequencing (NGS) technologies, providing a higher resolution of cellular differences and a better understanding of the function of an individual cell in the context of its microenvironment.</t>
   </si>
   <si>
@@ -1014,6 +1176,12 @@
     <t>SNP measurements captured by array technology</t>
   </si>
   <si>
+    <t>An ATAC-seq assay in which single nuclei are isolated from frozen tissue samples, through a protocol designed to maximally preserve nucleus integrity during sample processing and optimize transposase-mediated fragmentation of chromatin in individual nuclei.</t>
+  </si>
+  <si>
+    <t>Single nucleus RNA sequencing examines the sequence information from individual nuclei with optimized next generation sequencing (NGS) technologies. This allows the RNA-seq profiling of cell types that are more vulnerable to the tissue dissociation process, and that are therefore underrepresented in the final data set in single cell sequencing.</t>
+  </si>
+  <si>
     <t>The spontaneous alternation protocol is used to assess spatial working memory in mice.</t>
   </si>
   <si>
@@ -1029,6 +1197,9 @@
     <t>Ultra performance liquid chromatography - tandem mass spectrometer.</t>
   </si>
   <si>
+    <t>Ultra-Performance Liquid Chromatography Electro-Spray Ionization-Quadrupole-Time of Flight-Mass Spectrometry</t>
+  </si>
+  <si>
     <t>A medical device that is a combination of ruler and caliper that can measure the distance between two points. The configuration of this device permits the measurement of internal dimensions.</t>
   </si>
   <si>
@@ -1050,6 +1221,12 @@
     <t>The Zeno walkway utilizes an advanced and patented electronic sensing array technology with a proprietary network interface to sense and deliver the position of two dimensional objects in contact with its surface.</t>
   </si>
   <si>
+    <t>A library preparation that results in the creation of a library of 5' ends of DNA.</t>
+  </si>
+  <si>
+    <t>A library preparation that results in the creation of a library of the 5' and 3' ends of DNA or cDNA fragments using adaptors and endonucleases. The preparation may or may not include cloning process.</t>
+  </si>
+  <si>
     <t>Affymetrix Genome-Wide Human SNP 5.0 Array</t>
   </si>
   <si>
@@ -1086,6 +1263,9 @@
     <t>Confocal Imaging</t>
   </si>
   <si>
+    <t>The ddSEQ Single-Cell Isolator works with the Illumina Bio-Rad SureCell WTA 3' Library Prep Kit for the ddSEQ System. This technology utilizes disposable microfluidic cartridges to coencapsulate single cells and barcodes into subnanoliter droplets, where cell lysis and barcoding occur. RNA-Seq libraries are subsequently prepared and sequenced. Analysis is conducted via BaseSpace.</t>
+  </si>
+  <si>
     <t>BGI DNBseq</t>
   </si>
   <si>
@@ -1119,24 +1299,48 @@
     <t>Illumina HumanOmni1 Quad v1.0</t>
   </si>
   <si>
+    <t>Illumina Infinium General Screening Array 24-Kit v3.0</t>
+  </si>
+  <si>
     <t>Whole-genome expression profiling in the mouse</t>
   </si>
   <si>
+    <t>A kit featuring 8-sample arrays with high throughput and optimized tag SNP content, including full support of copy number variation applications, designed to be highly customizable and maximally informative for studying diverse world populations.</t>
+  </si>
+  <si>
+    <t>Illumina Omni2.5-8_v1.1</t>
+  </si>
+  <si>
+    <t>Illumina Omni2.5-8_v1.3</t>
+  </si>
+  <si>
     <t>Illumina Omni2.5</t>
   </si>
   <si>
     <t>Illumina Omni5</t>
   </si>
   <si>
+    <t>Illumina Omni5-Quad</t>
+  </si>
+  <si>
     <t>Illumina Hap300</t>
   </si>
   <si>
+    <t>Illumina Hap650Yv3_A</t>
+  </si>
+  <si>
     <t>Illumina HT-12 V3</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina HumanMethylation450 BeadChip </t>
   </si>
   <si>
+    <t>An Illumina methylation BeadChip array that interrogates 850,000 methylation sites per sample at single-nucleotide resolution.</t>
+  </si>
+  <si>
+    <t>Illumina Infinium General Screening Array 24-Kit v2.0</t>
+  </si>
+  <si>
     <t>Illumina Infinium HumanMethylation450 Bead Chip</t>
   </si>
   <si>
@@ -1152,9 +1356,15 @@
     <t>Illumina Human Whole-Genome DASL HT</t>
   </si>
   <si>
+    <t>Illumina 8-sample BeadChip microarray kit. built on a high-density single nucleotide polymorphism (SNP) global backbone optimized for cross-population imputation coverage of the genome.</t>
+  </si>
+  <si>
     <t>Infinium HumanOmniExpressExome BeadChip</t>
   </si>
   <si>
+    <t xml:space="preserve">Illumina array developed for large-scale genetic studies focused on psychiatricpredisposition and risk </t>
+  </si>
+  <si>
     <t>LTQ Orbitrap XL Hybrid Ion Trap-Orbitrap Mass Spectrometer</t>
   </si>
   <si>
@@ -1170,6 +1380,9 @@
     <t>Illumina NextSeq 500</t>
   </si>
   <si>
+    <t>Illumina NextSeq 2000</t>
+  </si>
+  <si>
     <t>Platform used for proximity extension assays</t>
   </si>
   <si>
@@ -1185,6 +1398,12 @@
     <t>PacBio RS II</t>
   </si>
   <si>
+    <t>A DNA sequencer built upon single molecule real-time sequencing technology, optimized for generation of highly accurate long reads, and which is manufactured by the Pacific Biosciences corporation.</t>
+  </si>
+  <si>
+    <t>Sequel IIe is the latest platform from Pacific Biosciences (PacBio) that generates high throughput and highly accurate long-read sequencing.</t>
+  </si>
+  <si>
     <t>Perlegen 300K array</t>
   </si>
   <si>
@@ -1194,6 +1413,9 @@
     <t>Thermo Scientific Q Exactive</t>
   </si>
   <si>
+    <t>Thermo Scientific Q Exactive HF-X</t>
+  </si>
+  <si>
     <t>Thermo Scientific Q Exactive Plus</t>
   </si>
   <si>
@@ -1215,69 +1437,126 @@
     <t>A piece of apparatus that consists of an ion source, a mass-to-charge analyser, a detector and a vacuum system and is used to measure mass spectra. The detector is a linear sequence of three quadrupole mass-to-charge analysers, which hold the ions in a stable orbit by an electric field generated by four parallel electrodes.</t>
   </si>
   <si>
+    <t>Waters oa-ToF based Xevo G2 Q-Tof</t>
+  </si>
+  <si>
     <t>Waters quadrupole based Xevo TQ-S. [database_cross_reference: PSI:MS]</t>
   </si>
   <si>
+    <t>A region amplified by a PCR reaction</t>
+  </si>
+  <si>
+    <t>Cell Hashing uses oligo-tagged antibodies against highly expressed surface proteins to place a 'sample barcode' on each single cell, enabling different samples to be multiplexed together and run in a single experiment</t>
+  </si>
+  <si>
+    <t>10x 3' v3 is the third version of the 10x sequencing technology that sequences from the 3' end of nucleic acid molecules. In the 3' assay, the polyd(T) sequence is part of the gel bead oligo (which also contains the 10x barcode, UMI, and partial Illuma Read 1 sequence), with the template switch oligo (TSO) supplied in the RT Primer.</t>
+  </si>
+  <si>
+    <t>A DNA library constructed from DNA extracted from cells</t>
+  </si>
+  <si>
+    <t>End-It DNA End-Repair Kit</t>
+  </si>
+  <si>
+    <t>Kapa HyperPrep Kit</t>
+  </si>
+  <si>
+    <t>RNA library enriched for lncRNA</t>
+  </si>
+  <si>
+    <t>An assay that uses methyl-sensitive enzymes to identify methylation patterns</t>
+  </si>
+  <si>
+    <t>RNA library with size selection for microRNAs</t>
+  </si>
+  <si>
+    <t>10x Chromium Single Cell Multiome ATAC + Gene Expression workflow to simultaneously profile gene expression and open chromatin from the same cell.</t>
+  </si>
+  <si>
+    <t>MULTI-seq is a method that uses lipid tagged barcode oligos to label cells prior to processing using 10x Genomics</t>
+  </si>
+  <si>
+    <t>Library preparation without PCR amplification</t>
+  </si>
+  <si>
+    <t>RNA selection by polyA tail capture</t>
+  </si>
+  <si>
+    <t>Proximity ligation technologies are based on the ability to crosslink two genomic loci that are in close physical proximity to each other in the nuclear space. The crosslinked chromatin is then subjected to restriction enzyme digestion, which fragments the genomic DNA. The digested chromatin is re-ligated so that regions that are crosslinked together (intra-molecular re-ligation) are attached to each other. This process produces libraries of chimeric DNA products, including adjacent restriction fragments, which are normally found at different positions along the linear genome.</t>
+  </si>
+  <si>
+    <t>Total RNA library with ribosomal RNA depleted.</t>
+  </si>
+  <si>
+    <t>Long-read single-nuclei full-length isoform sequencing</t>
+  </si>
+  <si>
+    <t>split-seq library preparation</t>
+  </si>
+  <si>
+    <t>Self-transcribing active regulatory region sequencing assay (STARR-Seq)</t>
+  </si>
+  <si>
+    <t>SureCell WTA 3' Library Prep Kit</t>
+  </si>
+  <si>
+    <t>A biological sample comprised of all of the RNA collected from an experimental subject.</t>
+  </si>
+  <si>
+    <t>Antibody-derived tag; oligonucleotide-labeled antibodies are used to integrate cellular protein and transcriptome measurements into an efficient, single-cell readout.</t>
+  </si>
+  <si>
+    <t>cDNA or complementary DNA is complementary in sequence to a particular messenger RNA (mRNA). It is synthesized from mRNA in a reverse transcription reaction by reverse transcriptase enzyme.</t>
+  </si>
+  <si>
+    <t>Cholesterol-modified oligonucleotide sample barcode anchor.</t>
+  </si>
+  <si>
+    <t>Hashtag oligonucelotide; oligo-tagged antibodies against ubiquitously expressed surface proteins with different barcodes are used to uniquely label cells from distinct samples.</t>
+  </si>
+  <si>
+    <t>Lipid-modified oligonucleotide sample barcode anchor.</t>
+  </si>
+  <si>
+    <t>A small cellular inclusion consisting of a ring of DNA that is not in a chromosome but is capable of autonomous replication.</t>
+  </si>
+  <si>
     <t>ISGR 1000 Genomes Project Phase 3</t>
   </si>
   <si>
+    <t>BDGP Release 6 of the D. melanogaster genome assembly, annotation set .06</t>
+  </si>
+  <si>
     <t>Genome Reference Consortium Human Build 38</t>
   </si>
   <si>
     <t>Genome Reference Consortium Human Build 37</t>
   </si>
   <si>
+    <t>Genome Reference Consortium Mouse Build 38</t>
+  </si>
+  <si>
     <t>Ensembl preliminary assembly Macaca mulatta</t>
   </si>
   <si>
     <t>Human haplotype reference panel</t>
   </si>
   <si>
-    <t>A region amplified by a PCR reaction</t>
-  </si>
-  <si>
-    <t>Cell Hashing uses oligo-tagged antibodies against highly expressed surface proteins to place a 'sample barcode' on each single cell, enabling different samples to be multiplexed together and run in a single experiment</t>
-  </si>
-  <si>
-    <t>A DNA library constructed from DNA extracted from cells</t>
-  </si>
-  <si>
-    <t>End-It DNA End-Repair Kit</t>
-  </si>
-  <si>
-    <t>Kapa HyperPrep Kit</t>
-  </si>
-  <si>
-    <t>RNA library enriched for lncRNA</t>
-  </si>
-  <si>
-    <t>RNA library with size selection for microRNAs</t>
-  </si>
-  <si>
-    <t>MULTI-seq is a method that uses lipid tagged barcode oligos to label cells prior to processing using 10x Genomics</t>
-  </si>
-  <si>
-    <t>Library preparation without PCR amplification</t>
-  </si>
-  <si>
-    <t>RNA selection by polyA tail capture</t>
-  </si>
-  <si>
-    <t>Total RNA library with ribosomal RNA depleted.</t>
-  </si>
-  <si>
-    <t>split-seq library preparation</t>
-  </si>
-  <si>
-    <t>Self-transcribing active regulatory region sequencing assay (STARR-Seq)</t>
-  </si>
-  <si>
-    <t>SureCell WTA 3' Library Prep Kit</t>
+    <t>Read 1 (or unpaired read) comes from the forward strand and read 2 (if applicable) comes from the reverse strand; equivalent to Tophat 'fr-secondstrand' type</t>
+  </si>
+  <si>
+    <t>read 1 (or unpaired read) comes from the reverse strand and read 2 (if applicable) comes from the forward strand; equivalent to Tophat 'fr-firststrand' type</t>
   </si>
   <si>
     <t>10x Genomics library preparation</t>
   </si>
   <si>
+    <t>The Accel-NGS 2S Plus DNA Library Kit, designed for Illumina platforms, utilizes a proprietary adapter attachment chemistry which minimizes bias and supports inputs as low as 10 pg.</t>
+  </si>
+  <si>
+    <t>Accel-NS Methyl-Seq technology utilizes Illumina-compatible adapter sequences and has been validated for whole genome bisulfite sequencing (WGBS) and targeted sequencing through hybridization capture.</t>
+  </si>
+  <si>
     <t>CEL-Seq library preparation</t>
   </si>
   <si>
@@ -1293,40 +1572,25 @@
     <t>Omni-ATAC-seq library preparation</t>
   </si>
   <si>
+    <t>TBA - contributor about to publish method</t>
+  </si>
+  <si>
+    <t>Switch mechanism at the 5' end of RNA templates; Smart-seq 1 library preparation</t>
+  </si>
+  <si>
     <t>Smart-seq 2 library preparation</t>
   </si>
   <si>
     <t>Smart-seq4 library preparation</t>
   </si>
   <si>
+    <t>A SMRTbell template is a double-stranded DNA template capped by hairpin loops at both ends. The SMRTbell template preparation method creates a circularized template for use in SMRT Sequencing and can accommodate insert lengths from 250bp to &gt; 20,000 bp</t>
+  </si>
+  <si>
     <t>TruSeq library preparation</t>
   </si>
   <si>
-    <t>Antibody-derived tag; oligonucleotide-labeled antibodies are used to integrate cellular protein and transcriptome measurements into an efficient, single-cell readout.</t>
-  </si>
-  <si>
-    <t>cDNA or complementary DNA is complementary in sequence to a particular messenger RNA (mRNA). It is synthesized from mRNA in a reverse transcription reaction by reverse transcriptase enzyme.</t>
-  </si>
-  <si>
-    <t>Cholesterol-modified oligonucleotide sample barcode anchor.</t>
-  </si>
-  <si>
-    <t>Hashtag oligonucelotide; oligo-tagged antibodies against ubiquitously expressed surface proteins with different barcodes are used to uniquely label cells from distinct samples.</t>
-  </si>
-  <si>
-    <t>Lipid-modified oligonucleotide sample barcode anchor.</t>
-  </si>
-  <si>
-    <t>Read 1 (or unpaired read) comes from the forward strand and read 2 (if applicable) comes from the reverse strand; equivalent to Tophat 'fr-secondstrand' type</t>
-  </si>
-  <si>
-    <t>read 1 (or unpaired read) comes from the reverse strand and read 2 (if applicable) comes from the forward strand; equivalent to Tophat 'fr-firststrand' type</t>
-  </si>
-  <si>
-    <t>A library preparation that results in the creation of a library of 5' ends of DNA.</t>
-  </si>
-  <si>
-    <t>A library preparation that results in the creation of a library of the 5' and 3' ends of DNA or cDNA fragments using adaptors and endonucleases. The preparation may or may not include cloning process.</t>
+    <t>The Ultralow Methyl-Seq library preparation kit produces libraries used in conjunction with bisulfite sequencing to analyze DNA methylation. With input levels as low as 10 ng, the kit enables methylation studies for a broad range of sample types and can be completed within 6 hours.</t>
   </si>
   <si>
     <t>http://www.ontobee.org/ontology/OBI?iri=http://purl.obolibrary.org/obo/OBI_0002763</t>
@@ -1380,6 +1644,12 @@
     <t>http://purl.obolibrary.org/obo/NBO_0000223</t>
   </si>
   <si>
+    <t>https://www.nature.com/articles/s41467-019-09982-5</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C161786</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.copbio.2013.01.009</t>
   </si>
   <si>
@@ -1413,6 +1683,9 @@
     <t>http://www.ebi.ac.uk/efo/EFO_0007693</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5143423/</t>
+  </si>
+  <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0007550</t>
   </si>
   <si>
@@ -1464,9 +1737,15 @@
     <t>http://purl.obolibrary.org/obo/NBO_0000447</t>
   </si>
   <si>
+    <t>https://www.encodeproject.org/rna-seq/long-read-rna-seq/</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/VT_0002207</t>
   </si>
   <si>
+    <t>https://doi.org/10.1007/978-1-4939-1258-2_13</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NBO_0000170</t>
   </si>
   <si>
@@ -1494,6 +1773,9 @@
     <t>http://purl.obolibrary.org/obo/MI_0658</t>
   </si>
   <si>
+    <t>https://doi.org/10.1186/S13059-020-02249-Z</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C130177</t>
   </si>
   <si>
@@ -1560,9 +1842,15 @@
     <t>http://purl.obolibrary.org/obo/MMO_0000217</t>
   </si>
   <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0010891</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/28126923</t>
   </si>
   <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0010550</t>
+  </si>
+  <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0007832</t>
   </si>
   <si>
@@ -1575,6 +1863,12 @@
     <t>http://purl.obolibrary.org/obo/OBI_0001204</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002762</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0009809</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0002041</t>
   </si>
   <si>
@@ -1587,6 +1881,9 @@
     <t>https://www.wur.nl/en/show/Ultra-performance-liquid-chromatography-tandem-mass-spectrometer-UPLCMSMS.htm</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5360460/</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C81184</t>
   </si>
   <si>
@@ -1605,6 +1902,9 @@
     <t>http://www.zenometrics.com/zenowalkway.html</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001852</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL6804</t>
   </si>
   <si>
@@ -1629,6 +1929,9 @@
     <t>http://www2.chem.uic.edu/nmr/downloads/bruker/en-US/pdf/z31839.pdf</t>
   </si>
   <si>
+    <t>https://www.bio-rad.com/en-us/product/ddseq-single-cell-isolator?ID=OKNWBSE8Z</t>
+  </si>
+  <si>
     <t>https://www.bgi.com/us/dnbseq-ngs-technology/</t>
   </si>
   <si>
@@ -1653,12 +1956,21 @@
     <t>https://www.illumina.com/systems/sequencing-platforms/hiseq-x.html</t>
   </si>
   <si>
+    <t>https://www.illumina.com/products/by-type/microarray-kits/infinium-global-screening.html</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL6887</t>
   </si>
   <si>
+    <t>https://www.illumina.com/products/by-type/microarray-kits/infinium-omni25-8.html</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL13534</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002131</t>
+  </si>
+  <si>
     <t>https://www.illumina.com/content/dam/illumina-marketing/documents/products/datasheets/datasheet_humanmethylation450.pdf</t>
   </si>
   <si>
@@ -1674,6 +1986,9 @@
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL13369</t>
   </si>
   <si>
+    <t>https://www.illumina.com/products/by-type/microarray-kits/infinium-global-diversity.html</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL18224</t>
   </si>
   <si>
@@ -1683,6 +1998,12 @@
     <t>https://support.illumina.com/downloads/infinium-omni25exome-8-v1-4-product-files.html</t>
   </si>
   <si>
+    <t>https://support.illumina.com/downloads/infinium-omni25exome-8-v1-5-support-files.html</t>
+  </si>
+  <si>
+    <t>https://www.illumina.com/content/dam/illumina-marketing/documents/products/datasheets/datasheet-infinium-psych-array.pdf</t>
+  </si>
+  <si>
     <t>https://www.thermofisher.com/order/catalog/product/IQLAAEGAAPFADBMAOK</t>
   </si>
   <si>
@@ -1695,10 +2016,13 @@
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL18573</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL30173</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL27151</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000484</t>
+    <t>http://purl.obolibrary.org/obo/CHMO_0000968</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1002416</t>
@@ -1710,12 +2034,21 @@
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL21311</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002633</t>
+  </si>
+  <si>
+    <t>https://www.pacb.com/technology/hifi-sequencing/sequel-system/latest-system-release/</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/MS_1001911</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1002523</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/MS_1002877</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/MS_1002634</t>
   </si>
   <si>
@@ -1731,51 +2064,96 @@
     <t>http://purl.obolibrary.org/obo/MS_1000084</t>
   </si>
   <si>
+    <t>https://www.waters.com/waters/en_US/Xevo-G2-XS-QTof-Quadrupole-Time-of-Flight-Mass-Spectrometer/nav.htm?locale=en_US&amp;cid=134798222</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/MS_1001792</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/SO_0000006</t>
+  </si>
+  <si>
+    <t>https://cite-seq.com/cell-hashing/</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols/ontologies/pcl/individuals?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPCL_0016452</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols/ontologies/efo/terms?short_form=EFO_0010172</t>
+  </si>
+  <si>
+    <t>https://www.lucigen.com/End-It-DNA-End-Repair-Kit/</t>
+  </si>
+  <si>
+    <t>https://sequencing.roche.com/en/products-solutions/products/sample-preparation/dna-reagents/library-preparation/kapa-hyperprep.html</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0008804</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0030059</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41592-019-0433-8+</t>
+  </si>
+  <si>
+    <t>https://journals.biologists.com/dev/article/144/20/3646/48125/The-three-dimensional-genome-regulating-gene</t>
+  </si>
+  <si>
+    <t>http://www.parsebiosciences.com/products</t>
+  </si>
+  <si>
+    <t>https://support.illumina.com/content/dam/illumina-support/documents/documentation/chemistry_documentation/surecell/surecell-wta3-library-prep-reference-guide-1000000021452-01.pdf</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C163995</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nmeth.4380</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0008481</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41592-019-0433-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13059-018-1603-1</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C754</t>
+  </si>
+  <si>
     <t>https://genome.sph.umich.edu/wiki/Minimac4#Reference_Panels_for_Download</t>
   </si>
   <si>
+    <t>http://ftp.flybase.net/releases/FB2015_03/dmel_r6.06/</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/assembly/GCF_000001405.26</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/assembly/GCF_000001405.13/</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/assembly/GCF_000001635.20/</t>
+  </si>
+  <si>
     <t>https://jul2016.archive.ensembl.org/Macaca_mulatta/Info/Index</t>
   </si>
   <si>
     <t>http://www.haplotype-reference-consortium.org</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/SO_0000006</t>
-  </si>
-  <si>
-    <t>https://cite-seq.com/cell-hashing/</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ols/ontologies/efo/terms?short_form=EFO_0010172</t>
-  </si>
-  <si>
-    <t>https://www.lucigen.com/End-It-DNA-End-Repair-Kit/</t>
-  </si>
-  <si>
-    <t>https://sequencing.roche.com/en/products-solutions/products/sample-preparation/dna-reagents/library-preparation/kapa-hyperprep.html</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41592-019-0433-8+</t>
-  </si>
-  <si>
-    <t>http://www.parsebiosciences.com/products</t>
-  </si>
-  <si>
-    <t>https://support.illumina.com/content/dam/illumina-support/documents/documentation/chemistry_documentation/surecell/surecell-wta3-library-prep-reference-guide-1000000021452-01.pdf</t>
-  </si>
-  <si>
     <t>https://github.com/HumanCellAtlas/metadata-schema/blob/master/json_schema/type/process/sequencing/library_preparation_process.json</t>
   </si>
   <si>
+    <t>https://swiftbiosci.com/accel-ngs-2s-plus-dna-library-kit/</t>
+  </si>
+  <si>
+    <t>https://www.bioscience.co.uk/userfiles/pdf/PRT-019%20Methyl-Seq%20Protocol%20Rev%203%20(1).pdf</t>
+  </si>
+  <si>
     <t>https://www.neb-online.fr/en/neb-en/next-generation-sequencing/nebnext-kits-for-illumina/</t>
   </si>
   <si>
@@ -1785,22 +2163,19 @@
     <t>https://protocolexchange.researchsquare.com/article/nprot-6107/v1</t>
   </si>
   <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0008930</t>
+  </si>
+  <si>
     <t>https://www.takarabio.com/products/next-generation-sequencing/single-cell-rna-and-dna-seq/smart-seq-v4-for-mrna-seq</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/nmeth.4380</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0008481</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41592-019-0433-8</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s13059-018-1603-1</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001852</t>
+    <t>http://files.pacb.com/Training/IntroductiontoSMRTbellTemplatePreparation/story_content/external_files/Introduction%20to%20SMRTbell%E2%84%A2%20Template%20Preparation.pdf</t>
+  </si>
+  <si>
+    <t>https://lifesciences.tecan.com/ultralow-methyl-seq-truemethyl-oxbs</t>
   </si>
 </sst>
 </file>
@@ -2171,13 +2546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2246,6 +2621,9 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2263,10 +2641,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2274,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2282,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2290,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2298,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2306,7 +2684,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2314,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2322,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2330,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2338,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2346,7 +2724,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2354,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2362,7 +2740,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2370,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2378,7 +2756,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2386,7 +2764,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2394,7 +2772,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2402,28 +2780,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2431,7 +2809,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2439,7 +2817,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2447,7 +2825,15 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2843,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2465,16 +2851,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2482,13 +2868,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>437</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2496,13 +2882,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>438</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2510,13 +2896,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>439</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2524,13 +2910,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>440</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2538,13 +2924,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2552,13 +2938,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>442</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2566,13 +2952,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2580,13 +2966,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>444</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2594,13 +2980,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>445</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2608,13 +2994,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>446</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2622,13 +3008,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>447</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2636,13 +3022,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>448</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2650,13 +3036,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>449</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2664,13 +3050,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>450</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2678,13 +3064,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>451</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2692,13 +3078,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>452</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2706,10 +3092,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>453</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2717,13 +3103,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>454</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2731,13 +3117,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>455</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2745,13 +3131,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>456</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2759,13 +3145,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>457</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2773,13 +3159,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>458</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2787,10 +3173,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>269</v>
+        <v>315</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2798,13 +3187,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>459</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2812,13 +3201,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>460</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2826,13 +3212,13 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2840,13 +3226,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>462</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2854,13 +3240,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>463</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2868,13 +3254,13 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>464</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2882,13 +3268,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>465</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2896,13 +3282,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>466</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2910,13 +3296,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>467</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2924,13 +3310,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>468</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2938,13 +3324,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>469</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2952,13 +3338,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2966,13 +3352,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>471</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2980,10 +3366,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>329</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2991,10 +3380,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>472</v>
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3002,13 +3394,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>473</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3016,13 +3408,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>474</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3030,13 +3419,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>475</v>
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3044,13 +3430,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>476</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3058,13 +3444,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>477</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3072,13 +3458,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>478</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3086,13 +3472,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>479</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3100,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3114,13 +3500,13 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
-      </c>
-      <c r="D48" t="s">
-        <v>472</v>
+        <v>338</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3128,13 +3514,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>481</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3142,13 +3528,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3156,13 +3542,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>483</v>
+        <v>341</v>
+      </c>
+      <c r="D51" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3170,13 +3556,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>484</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3184,13 +3570,13 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>485</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3198,13 +3584,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>486</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3212,13 +3598,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" t="s">
-        <v>487</v>
+        <v>345</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3226,13 +3612,13 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>488</v>
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3240,13 +3626,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>489</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3254,13 +3640,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>490</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3268,13 +3654,13 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>303</v>
-      </c>
-      <c r="D59" t="s">
-        <v>472</v>
+        <v>349</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3282,13 +3668,13 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>304</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>491</v>
+        <v>350</v>
+      </c>
+      <c r="D60" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3296,13 +3682,13 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>492</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3310,13 +3696,13 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>493</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3324,13 +3710,13 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>494</v>
+        <v>583</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3338,13 +3724,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
-        <v>308</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>495</v>
+        <v>354</v>
+      </c>
+      <c r="D64" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3352,13 +3738,13 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>496</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3366,13 +3752,13 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3380,13 +3766,13 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>498</v>
+        <v>586</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3394,13 +3780,13 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>499</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3408,13 +3794,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>500</v>
+        <v>588</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3422,13 +3808,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>501</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3436,13 +3822,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>502</v>
+        <v>590</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3450,13 +3836,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>503</v>
+        <v>591</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3464,13 +3850,13 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>504</v>
+        <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3478,13 +3864,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>505</v>
+        <v>593</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3492,13 +3878,13 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>506</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3506,13 +3892,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>507</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3520,13 +3906,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>508</v>
+        <v>596</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3534,13 +3920,13 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>509</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3548,13 +3934,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3562,13 +3948,13 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>511</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3576,13 +3962,13 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>512</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3590,13 +3976,13 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3604,13 +3990,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>514</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3618,13 +4004,13 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>515</v>
+        <v>603</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3632,13 +4018,13 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>516</v>
+        <v>604</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3646,13 +4032,13 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>517</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3660,13 +4046,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C87" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>518</v>
+        <v>606</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3674,13 +4060,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>462</v>
+        <v>607</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3688,13 +4074,13 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>519</v>
+        <v>608</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3702,13 +4088,13 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>520</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3716,13 +4102,13 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>521</v>
+        <v>610</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3730,13 +4116,13 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>522</v>
+        <v>611</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3744,13 +4130,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>523</v>
+        <v>612</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3758,13 +4144,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>524</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3772,13 +4158,13 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>525</v>
+        <v>614</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3786,13 +4172,13 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>462</v>
+        <v>615</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3800,13 +4186,13 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>526</v>
+        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3814,13 +4200,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3828,195 +4214,195 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C99" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>528</v>
+        <v>617</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>529</v>
+        <v>618</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>530</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C102" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>531</v>
+        <v>620</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>347</v>
-      </c>
-      <c r="D103" t="s">
-        <v>472</v>
+        <v>393</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>532</v>
+        <v>622</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>349</v>
-      </c>
-      <c r="D105" t="s">
-        <v>472</v>
+        <v>395</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>533</v>
+        <v>624</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>445</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>534</v>
+        <v>625</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>535</v>
+        <v>626</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>536</v>
+        <v>627</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C111" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="D111" t="s">
-        <v>472</v>
+        <v>563</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>537</v>
+        <v>628</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4024,13 +4410,13 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C113" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4038,13 +4424,13 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C114" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>539</v>
+        <v>630</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4052,13 +4438,13 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C115" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>540</v>
+        <v>631</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4066,13 +4452,13 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
-        <v>360</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>541</v>
+        <v>406</v>
+      </c>
+      <c r="D116" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4080,13 +4466,13 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>542</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4094,13 +4480,13 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s">
-        <v>362</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>543</v>
+        <v>408</v>
+      </c>
+      <c r="D118" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4108,13 +4494,13 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C119" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>544</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4122,13 +4508,13 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>364</v>
-      </c>
-      <c r="D120" t="s">
-        <v>472</v>
+        <v>410</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4136,13 +4522,13 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>365</v>
-      </c>
-      <c r="D121" t="s">
-        <v>472</v>
+        <v>411</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4150,13 +4536,13 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>366</v>
-      </c>
-      <c r="D122" t="s">
-        <v>472</v>
+        <v>412</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4164,13 +4550,13 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4178,13 +4564,13 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="D124" t="s">
-        <v>472</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4192,13 +4578,13 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>369</v>
-      </c>
-      <c r="D125" t="s">
-        <v>472</v>
+        <v>415</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4206,13 +4592,13 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C126" t="s">
-        <v>370</v>
-      </c>
-      <c r="D126" t="s">
-        <v>472</v>
+        <v>416</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4220,13 +4606,13 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>371</v>
-      </c>
-      <c r="D127" t="s">
-        <v>472</v>
+        <v>417</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4234,13 +4620,13 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C128" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>546</v>
+        <v>640</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4248,13 +4634,13 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>547</v>
+        <v>641</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4262,13 +4648,13 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4276,13 +4662,13 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>549</v>
+        <v>643</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4290,13 +4676,13 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4304,13 +4690,13 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C133" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>551</v>
+        <v>645</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4318,13 +4704,13 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C134" t="s">
-        <v>378</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>552</v>
+        <v>424</v>
+      </c>
+      <c r="D134" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4332,13 +4718,13 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>553</v>
+        <v>425</v>
+      </c>
+      <c r="D135" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4346,13 +4732,13 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C136" t="s">
-        <v>183</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>554</v>
+        <v>426</v>
+      </c>
+      <c r="D136" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4360,13 +4746,13 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>555</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4374,13 +4760,13 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C138" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>556</v>
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4388,13 +4774,13 @@
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C139" t="s">
-        <v>381</v>
-      </c>
-      <c r="D139" t="s">
-        <v>472</v>
+        <v>429</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4402,13 +4788,13 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C140" t="s">
-        <v>382</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>557</v>
+        <v>430</v>
+      </c>
+      <c r="D140" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4416,13 +4802,13 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C141" t="s">
-        <v>383</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>558</v>
+        <v>431</v>
+      </c>
+      <c r="D141" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4430,13 +4816,13 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C142" t="s">
-        <v>384</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>559</v>
+        <v>432</v>
+      </c>
+      <c r="D142" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4444,13 +4830,13 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C143" t="s">
-        <v>385</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>560</v>
+        <v>433</v>
+      </c>
+      <c r="D143" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4458,13 +4844,13 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C144" t="s">
-        <v>386</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>561</v>
+        <v>434</v>
+      </c>
+      <c r="D144" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4472,13 +4858,13 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C145" t="s">
-        <v>387</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>562</v>
+        <v>435</v>
+      </c>
+      <c r="D145" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4486,12 +4872,12 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C146" t="s">
-        <v>388</v>
-      </c>
-      <c r="D146" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D146" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4500,13 +4886,13 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C147" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="D147" t="s">
-        <v>472</v>
+        <v>563</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4514,13 +4900,13 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C148" t="s">
-        <v>195</v>
-      </c>
-      <c r="D148" t="s">
-        <v>472</v>
+        <v>438</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4528,13 +4914,13 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C149" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>564</v>
+        <v>650</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4542,13 +4928,13 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C150" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4556,13 +4942,13 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C151" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4570,13 +4956,13 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C152" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4584,13 +4970,13 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C153" t="s">
-        <v>394</v>
-      </c>
-      <c r="D153" t="s">
-        <v>472</v>
+        <v>443</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4598,13 +4984,13 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C154" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>568</v>
+        <v>654</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4612,13 +4998,13 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C155" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>569</v>
+        <v>655</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4626,13 +5012,13 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C156" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>570</v>
+        <v>656</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4640,13 +5026,13 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C157" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>553</v>
+        <v>657</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4654,475 +5040,463 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>399</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>571</v>
+        <v>207</v>
+      </c>
+      <c r="D158" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C159" t="s">
-        <v>400</v>
+        <v>208</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>572</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C160" t="s">
-        <v>401</v>
+        <v>209</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>573</v>
+        <v>659</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C161" t="s">
-        <v>402</v>
+        <v>210</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C162" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C163" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>576</v>
+        <v>662</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C164" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>577</v>
+        <v>663</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C165" t="s">
-        <v>406</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>578</v>
+        <v>451</v>
+      </c>
+      <c r="D165" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C167" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>580</v>
+        <v>665</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C168" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>581</v>
+        <v>666</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C169" t="s">
-        <v>410</v>
-      </c>
-      <c r="D169" t="s">
-        <v>472</v>
+        <v>455</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C170" t="s">
-        <v>411</v>
-      </c>
-      <c r="D170" t="s">
-        <v>472</v>
+        <v>456</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C171" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C172" t="s">
-        <v>413</v>
-      </c>
-      <c r="D172" t="s">
-        <v>472</v>
+        <v>458</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s">
-        <v>414</v>
-      </c>
-      <c r="D173" t="s">
-        <v>472</v>
+        <v>459</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C174" t="s">
-        <v>415</v>
-      </c>
-      <c r="D174" t="s">
-        <v>472</v>
+        <v>460</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C175" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>583</v>
+        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="C176" t="s">
-        <v>417</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>519</v>
+        <v>462</v>
+      </c>
+      <c r="D176" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>418</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>584</v>
+        <v>226</v>
+      </c>
+      <c r="D177" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C178" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>585</v>
+        <v>674</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C179" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>585</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C180" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>585</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>586</v>
+        <v>677</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>587</v>
+        <v>678</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B183" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C183" t="s">
-        <v>424</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>588</v>
+        <v>468</v>
+      </c>
+      <c r="D183" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C184" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>585</v>
+        <v>679</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B185" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C185" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>589</v>
+        <v>680</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C186" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>585</v>
+        <v>681</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C187" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C188" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>591</v>
+        <v>682</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C189" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>592</v>
+        <v>683</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
-        <v>236</v>
-      </c>
-      <c r="C190" t="s">
-        <v>431</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>593</v>
+        <v>239</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>237</v>
-      </c>
-      <c r="C191" t="s">
-        <v>432</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>592</v>
+        <v>240</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5130,7 +5504,7 @@
         <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5138,7 +5512,7 @@
         <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5146,7 +5520,7 @@
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5154,79 +5528,755 @@
         <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="C196" t="s">
+        <v>475</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="C197" t="s">
+        <v>476</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C198" t="s">
-        <v>433</v>
-      </c>
-      <c r="D198" t="s">
-        <v>472</v>
+        <v>477</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C199" t="s">
-        <v>434</v>
-      </c>
-      <c r="D199" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C200" t="s">
-        <v>435</v>
-      </c>
-      <c r="D200" t="s">
-        <v>472</v>
+        <v>479</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>594</v>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>251</v>
+      </c>
+      <c r="C202" t="s">
+        <v>481</v>
+      </c>
+      <c r="D202" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>252</v>
+      </c>
+      <c r="C203" t="s">
+        <v>482</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>253</v>
+      </c>
+      <c r="C204" t="s">
+        <v>483</v>
+      </c>
+      <c r="D204" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>254</v>
+      </c>
+      <c r="C205" t="s">
+        <v>484</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>255</v>
+      </c>
+      <c r="C206" t="s">
+        <v>485</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>256</v>
+      </c>
+      <c r="C207" t="s">
+        <v>486</v>
+      </c>
+      <c r="D207" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>257</v>
+      </c>
+      <c r="C208" t="s">
+        <v>487</v>
+      </c>
+      <c r="D208" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>258</v>
+      </c>
+      <c r="C209" t="s">
+        <v>488</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>259</v>
+      </c>
+      <c r="C210" t="s">
+        <v>489</v>
+      </c>
+      <c r="D210" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>260</v>
+      </c>
+      <c r="C211" t="s">
+        <v>490</v>
+      </c>
+      <c r="D211" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>261</v>
+      </c>
+      <c r="C212" t="s">
+        <v>491</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>149</v>
+      </c>
+      <c r="C213" t="s">
+        <v>492</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>262</v>
+      </c>
+      <c r="C214" t="s">
+        <v>493</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>263</v>
+      </c>
+      <c r="C215" t="s">
+        <v>494</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" t="s">
+        <v>264</v>
+      </c>
+      <c r="C216" t="s">
+        <v>495</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" t="s">
+        <v>265</v>
+      </c>
+      <c r="C217" t="s">
+        <v>496</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" t="s">
+        <v>266</v>
+      </c>
+      <c r="C218" t="s">
+        <v>497</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>267</v>
+      </c>
+      <c r="C219" t="s">
+        <v>498</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" t="s">
+        <v>268</v>
+      </c>
+      <c r="C220" t="s">
+        <v>499</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" t="s">
+        <v>269</v>
+      </c>
+      <c r="C221" t="s">
+        <v>500</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>270</v>
+      </c>
+      <c r="C222" t="s">
+        <v>501</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>271</v>
+      </c>
+      <c r="C223" t="s">
+        <v>502</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>272</v>
+      </c>
+      <c r="C224" t="s">
+        <v>503</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>273</v>
+      </c>
+      <c r="C225" t="s">
+        <v>504</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>274</v>
+      </c>
+      <c r="C226" t="s">
+        <v>505</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>275</v>
+      </c>
+      <c r="C227" t="s">
+        <v>506</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>276</v>
+      </c>
+      <c r="C228" t="s">
+        <v>507</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>15</v>
+      </c>
+      <c r="B233" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" t="s">
+        <v>277</v>
+      </c>
+      <c r="C235" t="s">
+        <v>508</v>
+      </c>
+      <c r="D235" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" t="s">
+        <v>278</v>
+      </c>
+      <c r="C236" t="s">
+        <v>509</v>
+      </c>
+      <c r="D236" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" t="s">
+        <v>279</v>
+      </c>
+      <c r="C237" t="s">
+        <v>510</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" t="s">
+        <v>280</v>
+      </c>
+      <c r="C238" t="s">
+        <v>511</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>281</v>
+      </c>
+      <c r="C239" t="s">
+        <v>512</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
+        <v>282</v>
+      </c>
+      <c r="C240" t="s">
+        <v>513</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" t="s">
+        <v>283</v>
+      </c>
+      <c r="C241" t="s">
+        <v>514</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" t="s">
+        <v>284</v>
+      </c>
+      <c r="C242" t="s">
+        <v>515</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>285</v>
+      </c>
+      <c r="C243" t="s">
+        <v>516</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s">
+        <v>286</v>
+      </c>
+      <c r="C244" t="s">
+        <v>517</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>287</v>
+      </c>
+      <c r="C245" t="s">
+        <v>518</v>
+      </c>
+      <c r="D245" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>288</v>
+      </c>
+      <c r="C246" t="s">
+        <v>519</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" t="s">
+        <v>289</v>
+      </c>
+      <c r="C247" t="s">
+        <v>520</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" t="s">
+        <v>290</v>
+      </c>
+      <c r="C248" t="s">
+        <v>521</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>291</v>
+      </c>
+      <c r="C249" t="s">
+        <v>522</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" t="s">
+        <v>292</v>
+      </c>
+      <c r="C250" t="s">
+        <v>523</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" t="s">
+        <v>293</v>
+      </c>
+      <c r="C251" t="s">
+        <v>524</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -5253,8 +6303,8 @@
     <hyperlink ref="D21" r:id="rId20"/>
     <hyperlink ref="D22" r:id="rId21"/>
     <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D25" r:id="rId23"/>
-    <hyperlink ref="D26" r:id="rId24"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
     <hyperlink ref="D27" r:id="rId25"/>
     <hyperlink ref="D28" r:id="rId26"/>
     <hyperlink ref="D29" r:id="rId27"/>
@@ -5266,28 +6316,28 @@
     <hyperlink ref="D35" r:id="rId33"/>
     <hyperlink ref="D36" r:id="rId34"/>
     <hyperlink ref="D37" r:id="rId35"/>
-    <hyperlink ref="D40" r:id="rId36"/>
-    <hyperlink ref="D41" r:id="rId37"/>
-    <hyperlink ref="D42" r:id="rId38"/>
+    <hyperlink ref="D38" r:id="rId36"/>
+    <hyperlink ref="D39" r:id="rId37"/>
+    <hyperlink ref="D40" r:id="rId38"/>
     <hyperlink ref="D43" r:id="rId39"/>
     <hyperlink ref="D44" r:id="rId40"/>
     <hyperlink ref="D45" r:id="rId41"/>
     <hyperlink ref="D46" r:id="rId42"/>
     <hyperlink ref="D47" r:id="rId43"/>
-    <hyperlink ref="D49" r:id="rId44"/>
-    <hyperlink ref="D50" r:id="rId45"/>
-    <hyperlink ref="D51" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId44"/>
+    <hyperlink ref="D49" r:id="rId45"/>
+    <hyperlink ref="D50" r:id="rId46"/>
     <hyperlink ref="D52" r:id="rId47"/>
     <hyperlink ref="D53" r:id="rId48"/>
     <hyperlink ref="D54" r:id="rId49"/>
-    <hyperlink ref="D56" r:id="rId50"/>
-    <hyperlink ref="D57" r:id="rId51"/>
-    <hyperlink ref="D58" r:id="rId52"/>
-    <hyperlink ref="D60" r:id="rId53"/>
-    <hyperlink ref="D61" r:id="rId54"/>
-    <hyperlink ref="D62" r:id="rId55"/>
-    <hyperlink ref="D63" r:id="rId56"/>
-    <hyperlink ref="D64" r:id="rId57"/>
+    <hyperlink ref="D55" r:id="rId50"/>
+    <hyperlink ref="D56" r:id="rId51"/>
+    <hyperlink ref="D57" r:id="rId52"/>
+    <hyperlink ref="D58" r:id="rId53"/>
+    <hyperlink ref="D59" r:id="rId54"/>
+    <hyperlink ref="D61" r:id="rId55"/>
+    <hyperlink ref="D62" r:id="rId56"/>
+    <hyperlink ref="D63" r:id="rId57"/>
     <hyperlink ref="D65" r:id="rId58"/>
     <hyperlink ref="D66" r:id="rId59"/>
     <hyperlink ref="D67" r:id="rId60"/>
@@ -5302,13 +6352,13 @@
     <hyperlink ref="D76" r:id="rId69"/>
     <hyperlink ref="D77" r:id="rId70"/>
     <hyperlink ref="D78" r:id="rId71"/>
-    <hyperlink ref="D79" r:id="rId72" location="BAO_0010030"/>
+    <hyperlink ref="D79" r:id="rId72"/>
     <hyperlink ref="D80" r:id="rId73"/>
     <hyperlink ref="D81" r:id="rId74"/>
     <hyperlink ref="D82" r:id="rId75"/>
     <hyperlink ref="D83" r:id="rId76"/>
     <hyperlink ref="D84" r:id="rId77"/>
-    <hyperlink ref="D85" r:id="rId78"/>
+    <hyperlink ref="D85" r:id="rId78" location="BAO_0010030"/>
     <hyperlink ref="D86" r:id="rId79"/>
     <hyperlink ref="D87" r:id="rId80"/>
     <hyperlink ref="D88" r:id="rId81"/>
@@ -5317,7 +6367,7 @@
     <hyperlink ref="D91" r:id="rId84"/>
     <hyperlink ref="D92" r:id="rId85"/>
     <hyperlink ref="D93" r:id="rId86"/>
-    <hyperlink ref="D94" r:id="rId87" location="Von_Frey"/>
+    <hyperlink ref="D94" r:id="rId87"/>
     <hyperlink ref="D95" r:id="rId88"/>
     <hyperlink ref="D96" r:id="rId89"/>
     <hyperlink ref="D97" r:id="rId90"/>
@@ -5326,77 +6376,114 @@
     <hyperlink ref="D100" r:id="rId93"/>
     <hyperlink ref="D101" r:id="rId94"/>
     <hyperlink ref="D102" r:id="rId95"/>
-    <hyperlink ref="D104" r:id="rId96"/>
-    <hyperlink ref="D106" r:id="rId97"/>
-    <hyperlink ref="D107" r:id="rId98"/>
-    <hyperlink ref="D108" r:id="rId99"/>
-    <hyperlink ref="D109" r:id="rId100"/>
-    <hyperlink ref="D110" r:id="rId101"/>
-    <hyperlink ref="D112" r:id="rId102"/>
-    <hyperlink ref="D113" r:id="rId103"/>
-    <hyperlink ref="D114" r:id="rId104"/>
-    <hyperlink ref="D115" r:id="rId105"/>
-    <hyperlink ref="D116" r:id="rId106"/>
-    <hyperlink ref="D117" r:id="rId107"/>
-    <hyperlink ref="D118" r:id="rId108"/>
+    <hyperlink ref="D103" r:id="rId96"/>
+    <hyperlink ref="D104" r:id="rId97"/>
+    <hyperlink ref="D105" r:id="rId98" location="Von_Frey"/>
+    <hyperlink ref="D106" r:id="rId99"/>
+    <hyperlink ref="D107" r:id="rId100"/>
+    <hyperlink ref="D108" r:id="rId101"/>
+    <hyperlink ref="D109" r:id="rId102"/>
+    <hyperlink ref="D110" r:id="rId103"/>
+    <hyperlink ref="D112" r:id="rId104"/>
+    <hyperlink ref="D113" r:id="rId105"/>
+    <hyperlink ref="D114" r:id="rId106"/>
+    <hyperlink ref="D115" r:id="rId107"/>
+    <hyperlink ref="D117" r:id="rId108"/>
     <hyperlink ref="D119" r:id="rId109"/>
-    <hyperlink ref="D123" r:id="rId110"/>
-    <hyperlink ref="D128" r:id="rId111"/>
-    <hyperlink ref="D129" r:id="rId112"/>
-    <hyperlink ref="D130" r:id="rId113"/>
-    <hyperlink ref="D131" r:id="rId114"/>
-    <hyperlink ref="D132" r:id="rId115"/>
-    <hyperlink ref="D133" r:id="rId116"/>
-    <hyperlink ref="D134" r:id="rId117"/>
-    <hyperlink ref="D135" r:id="rId118"/>
-    <hyperlink ref="D136" r:id="rId119"/>
-    <hyperlink ref="D137" r:id="rId120"/>
-    <hyperlink ref="D138" r:id="rId121"/>
-    <hyperlink ref="D140" r:id="rId122"/>
-    <hyperlink ref="D141" r:id="rId123"/>
-    <hyperlink ref="D142" r:id="rId124"/>
-    <hyperlink ref="D143" r:id="rId125"/>
-    <hyperlink ref="D144" r:id="rId126"/>
-    <hyperlink ref="D145" r:id="rId127"/>
-    <hyperlink ref="D146" r:id="rId128"/>
-    <hyperlink ref="D149" r:id="rId129"/>
-    <hyperlink ref="D150" r:id="rId130"/>
-    <hyperlink ref="D151" r:id="rId131"/>
-    <hyperlink ref="D152" r:id="rId132"/>
-    <hyperlink ref="D154" r:id="rId133"/>
-    <hyperlink ref="D155" r:id="rId134"/>
-    <hyperlink ref="D156" r:id="rId135"/>
-    <hyperlink ref="D157" r:id="rId136"/>
-    <hyperlink ref="D158" r:id="rId137"/>
-    <hyperlink ref="D159" r:id="rId138" location="Reference_Panels_for_Download"/>
-    <hyperlink ref="D160" r:id="rId139"/>
-    <hyperlink ref="D161" r:id="rId140"/>
-    <hyperlink ref="D162" r:id="rId141"/>
-    <hyperlink ref="D163" r:id="rId142"/>
-    <hyperlink ref="D164" r:id="rId143"/>
-    <hyperlink ref="D165" r:id="rId144"/>
-    <hyperlink ref="D166" r:id="rId145"/>
-    <hyperlink ref="D167" r:id="rId146"/>
-    <hyperlink ref="D168" r:id="rId147"/>
-    <hyperlink ref="D171" r:id="rId148"/>
-    <hyperlink ref="D175" r:id="rId149"/>
-    <hyperlink ref="D176" r:id="rId150"/>
-    <hyperlink ref="D177" r:id="rId151"/>
+    <hyperlink ref="D120" r:id="rId110"/>
+    <hyperlink ref="D121" r:id="rId111"/>
+    <hyperlink ref="D122" r:id="rId112"/>
+    <hyperlink ref="D123" r:id="rId113"/>
+    <hyperlink ref="D125" r:id="rId114"/>
+    <hyperlink ref="D126" r:id="rId115"/>
+    <hyperlink ref="D127" r:id="rId116"/>
+    <hyperlink ref="D128" r:id="rId117"/>
+    <hyperlink ref="D129" r:id="rId118"/>
+    <hyperlink ref="D130" r:id="rId119"/>
+    <hyperlink ref="D131" r:id="rId120"/>
+    <hyperlink ref="D132" r:id="rId121"/>
+    <hyperlink ref="D133" r:id="rId122"/>
+    <hyperlink ref="D137" r:id="rId123"/>
+    <hyperlink ref="D138" r:id="rId124"/>
+    <hyperlink ref="D139" r:id="rId125"/>
+    <hyperlink ref="D148" r:id="rId126"/>
+    <hyperlink ref="D149" r:id="rId127"/>
+    <hyperlink ref="D150" r:id="rId128"/>
+    <hyperlink ref="D151" r:id="rId129"/>
+    <hyperlink ref="D152" r:id="rId130"/>
+    <hyperlink ref="D153" r:id="rId131"/>
+    <hyperlink ref="D154" r:id="rId132"/>
+    <hyperlink ref="D155" r:id="rId133"/>
+    <hyperlink ref="D156" r:id="rId134"/>
+    <hyperlink ref="D157" r:id="rId135"/>
+    <hyperlink ref="D159" r:id="rId136"/>
+    <hyperlink ref="D160" r:id="rId137"/>
+    <hyperlink ref="D161" r:id="rId138"/>
+    <hyperlink ref="D162" r:id="rId139"/>
+    <hyperlink ref="D163" r:id="rId140"/>
+    <hyperlink ref="D164" r:id="rId141"/>
+    <hyperlink ref="D166" r:id="rId142"/>
+    <hyperlink ref="D167" r:id="rId143"/>
+    <hyperlink ref="D168" r:id="rId144"/>
+    <hyperlink ref="D169" r:id="rId145"/>
+    <hyperlink ref="D170" r:id="rId146"/>
+    <hyperlink ref="D171" r:id="rId147"/>
+    <hyperlink ref="D172" r:id="rId148"/>
+    <hyperlink ref="D173" r:id="rId149"/>
+    <hyperlink ref="D174" r:id="rId150"/>
+    <hyperlink ref="D175" r:id="rId151"/>
     <hyperlink ref="D178" r:id="rId152"/>
     <hyperlink ref="D179" r:id="rId153"/>
     <hyperlink ref="D180" r:id="rId154"/>
     <hyperlink ref="D181" r:id="rId155"/>
     <hyperlink ref="D182" r:id="rId156"/>
-    <hyperlink ref="D183" r:id="rId157"/>
-    <hyperlink ref="D184" r:id="rId158"/>
-    <hyperlink ref="D185" r:id="rId159"/>
-    <hyperlink ref="D186" r:id="rId160"/>
-    <hyperlink ref="D187" r:id="rId161"/>
-    <hyperlink ref="D188" r:id="rId162"/>
-    <hyperlink ref="D189" r:id="rId163"/>
-    <hyperlink ref="D190" r:id="rId164"/>
-    <hyperlink ref="D191" r:id="rId165"/>
-    <hyperlink ref="D201" r:id="rId166"/>
+    <hyperlink ref="D184" r:id="rId157"/>
+    <hyperlink ref="D185" r:id="rId158"/>
+    <hyperlink ref="D186" r:id="rId159"/>
+    <hyperlink ref="D187" r:id="rId160"/>
+    <hyperlink ref="D188" r:id="rId161"/>
+    <hyperlink ref="D189" r:id="rId162"/>
+    <hyperlink ref="D196" r:id="rId163"/>
+    <hyperlink ref="D197" r:id="rId164"/>
+    <hyperlink ref="D198" r:id="rId165"/>
+    <hyperlink ref="D199" r:id="rId166"/>
+    <hyperlink ref="D200" r:id="rId167"/>
+    <hyperlink ref="D201" r:id="rId168"/>
+    <hyperlink ref="D203" r:id="rId169"/>
+    <hyperlink ref="D205" r:id="rId170"/>
+    <hyperlink ref="D206" r:id="rId171"/>
+    <hyperlink ref="D209" r:id="rId172"/>
+    <hyperlink ref="D212" r:id="rId173"/>
+    <hyperlink ref="D213" r:id="rId174"/>
+    <hyperlink ref="D214" r:id="rId175"/>
+    <hyperlink ref="D215" r:id="rId176"/>
+    <hyperlink ref="D216" r:id="rId177"/>
+    <hyperlink ref="D217" r:id="rId178"/>
+    <hyperlink ref="D218" r:id="rId179"/>
+    <hyperlink ref="D219" r:id="rId180"/>
+    <hyperlink ref="D220" r:id="rId181"/>
+    <hyperlink ref="D221" r:id="rId182"/>
+    <hyperlink ref="D222" r:id="rId183" location="Reference_Panels_for_Download"/>
+    <hyperlink ref="D223" r:id="rId184"/>
+    <hyperlink ref="D224" r:id="rId185"/>
+    <hyperlink ref="D225" r:id="rId186"/>
+    <hyperlink ref="D226" r:id="rId187"/>
+    <hyperlink ref="D227" r:id="rId188"/>
+    <hyperlink ref="D228" r:id="rId189"/>
+    <hyperlink ref="D237" r:id="rId190"/>
+    <hyperlink ref="D238" r:id="rId191"/>
+    <hyperlink ref="D239" r:id="rId192"/>
+    <hyperlink ref="D240" r:id="rId193"/>
+    <hyperlink ref="D241" r:id="rId194"/>
+    <hyperlink ref="D242" r:id="rId195"/>
+    <hyperlink ref="D243" r:id="rId196"/>
+    <hyperlink ref="D244" r:id="rId197"/>
+    <hyperlink ref="D246" r:id="rId198"/>
+    <hyperlink ref="D247" r:id="rId199"/>
+    <hyperlink ref="D248" r:id="rId200"/>
+    <hyperlink ref="D249" r:id="rId201"/>
+    <hyperlink ref="D250" r:id="rId202"/>
+    <hyperlink ref="D251" r:id="rId203"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
